--- a/tables/total_greenhouse_gas_emissions_by_country_1970_2018.xlsx
+++ b/tables/total_greenhouse_gas_emissions_by_country_1970_2018.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>млн тонн СО2 эквивалента</t>
   </si>
@@ -39,93 +39,54 @@
     <t>США</t>
   </si>
   <si>
-    <t>17.8%</t>
-  </si>
-  <si>
     <t>Китай</t>
   </si>
   <si>
-    <t>17.1%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Страны ЕС (27) </t>
   </si>
   <si>
-    <t>13.1%</t>
-  </si>
-  <si>
     <t>Россия</t>
   </si>
   <si>
-    <t>6.4%</t>
-  </si>
-  <si>
     <t>Индия</t>
   </si>
   <si>
-    <t>4.9%</t>
-  </si>
-  <si>
     <t>Япония</t>
   </si>
   <si>
-    <t>3.5%</t>
-  </si>
-  <si>
     <t>Бразилия</t>
   </si>
   <si>
-    <t>2.3%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Украина </t>
   </si>
   <si>
-    <t>1.8%</t>
-  </si>
-  <si>
     <t>Канада</t>
   </si>
   <si>
     <t>Мексика</t>
   </si>
   <si>
-    <t>1.5%</t>
-  </si>
-  <si>
     <t>Индонезия</t>
   </si>
   <si>
     <t>Иран</t>
   </si>
   <si>
-    <t>1.3%</t>
-  </si>
-  <si>
     <t>Австралия</t>
   </si>
   <si>
     <t xml:space="preserve">ЮАР </t>
   </si>
   <si>
-    <t>1.2%</t>
-  </si>
-  <si>
     <t>Южная Корея</t>
   </si>
   <si>
     <t>Саудовская Аравия</t>
   </si>
   <si>
-    <t>1.0%</t>
-  </si>
-  <si>
     <t>Нигерия</t>
   </si>
   <si>
-    <t>0.8%</t>
-  </si>
-  <si>
     <t>Аргентина</t>
   </si>
   <si>
@@ -145,13 +106,79 @@
   </si>
   <si>
     <t>332 018.3</t>
+  </si>
+  <si>
+    <t>310 514,6</t>
+  </si>
+  <si>
+    <t>298 658,6</t>
+  </si>
+  <si>
+    <t>228 623,9</t>
+  </si>
+  <si>
+    <t>112 410,0</t>
+  </si>
+  <si>
+    <t>86 018,7</t>
+  </si>
+  <si>
+    <t>61 388,1</t>
+  </si>
+  <si>
+    <t>39 898,3</t>
+  </si>
+  <si>
+    <t>31 227,8</t>
+  </si>
+  <si>
+    <t>30 881,6</t>
+  </si>
+  <si>
+    <t>26 093,1</t>
+  </si>
+  <si>
+    <t>25 586,9</t>
+  </si>
+  <si>
+    <t>22 930,4</t>
+  </si>
+  <si>
+    <t>22 902,4</t>
+  </si>
+  <si>
+    <t>20 746,2</t>
+  </si>
+  <si>
+    <t>20 147,4</t>
+  </si>
+  <si>
+    <t>17 007,7</t>
+  </si>
+  <si>
+    <t>14 701,9</t>
+  </si>
+  <si>
+    <t>14 696,3</t>
+  </si>
+  <si>
+    <t>14 088,0</t>
+  </si>
+  <si>
+    <t>13 531,6</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,16 +186,167 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9736D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF1DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9786E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB9574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEC77D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED280"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDD82"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE683"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE984"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8E983"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7DF81"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCD780"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5D57F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8ECA7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF71C27B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69BF7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63BE7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -176,16 +354,187 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +808,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -470,341 +819,345 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="U23" sqref="G2:U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" ht="90.75" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>310514.59999999998</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>298658.59999999998</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>228623.9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
-        <v>112410</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
-        <v>86018.7</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <v>61388.1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1">
-        <v>39898.300000000003</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1">
-        <v>31227.8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="21">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1">
-        <v>30881.599999999999</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A21" s="24">
+        <v>19</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="27">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>26093.1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1">
-        <v>25586.9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
-        <v>22930.400000000001</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A24" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
-        <v>22902.400000000001</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1">
-        <v>20746.2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1">
-        <v>20147.400000000001</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1">
-        <v>17007.7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1">
-        <v>14701.9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1">
-        <v>14696.3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1">
-        <v>14088</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1">
-        <v>13531.6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.19</v>
+      <c r="D24" s="29" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
